--- a/TestData/Excel/Data.xlsx
+++ b/TestData/Excel/Data.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shared\TA Stuff\abantecart.specflow\TestData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abantecart.specflow\TestData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SignIn" sheetId="1" r:id="rId1"/>
+    <sheet name="PersonalDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Username</t>
   </si>
@@ -31,6 +32,51 @@
   </si>
   <si>
     <t>testaccount</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Regis</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Banderas</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Stark</t>
+  </si>
+  <si>
+    <t>Bonito</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Antoine</t>
+  </si>
+  <si>
+    <t>faxNumber</t>
+  </si>
+  <si>
+    <t>telephoneNumber</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Chono</t>
   </si>
 </sst>
 </file>
@@ -381,7 +427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -411,4 +457,133 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE(LOWER(A2), "@codifyme.co.nz")</f>
+        <v>anthony@codifyme.co.nz</v>
+      </c>
+      <c r="D2">
+        <v>64221328444</v>
+      </c>
+      <c r="E2">
+        <v>6495551234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C6" si="0">CONCATENATE(LOWER(A3), "@codifyme.co.nz")</f>
+        <v>antonio@codifyme.co.nz</v>
+      </c>
+      <c r="D3">
+        <v>64221328445</v>
+      </c>
+      <c r="E3">
+        <v>6435555678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>tony@codifyme.co.nz</v>
+      </c>
+      <c r="D4">
+        <v>64221328446</v>
+      </c>
+      <c r="E4">
+        <v>6475559876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>chono@codifyme.co.nz</v>
+      </c>
+      <c r="D5">
+        <v>64221328447</v>
+      </c>
+      <c r="E5">
+        <v>6445554321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>antoine@codifyme.co.nz</v>
+      </c>
+      <c r="D6">
+        <v>64221328448</v>
+      </c>
+      <c r="E6">
+        <v>6465558765</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>